--- a/DataTable/QuestTable.xlsx
+++ b/DataTable/QuestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imjunseong/Desktop/Unity/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C01972-D5D8-FA4B-AC4F-DDB4E7C8B871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4199B-5EB8-034B-8354-C848FA41A74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="800" windowWidth="28100" windowHeight="17220" xr2:uid="{678EDDF4-CE9F-4543-90D4-9FD3663467C3}"/>
+    <workbookView xWindow="1080" yWindow="820" windowWidth="28100" windowHeight="17220" xr2:uid="{678EDDF4-CE9F-4543-90D4-9FD3663467C3}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,7 +66,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{int}30</t>
+    <t>questName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestQuest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{float}30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C89608-5DF8-A042-99FA-293B2E0FD3DE}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,10 +502,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -507,8 +518,11 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -516,7 +530,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/QuestTable.xlsx
+++ b/DataTable/QuestTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imjunseong/Desktop/Unity/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4199B-5EB8-034B-8354-C848FA41A74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49322DFA-0CB7-624E-9CD4-E27B11CB5205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="820" windowWidth="28100" windowHeight="17220" xr2:uid="{678EDDF4-CE9F-4543-90D4-9FD3663467C3}"/>
+    <workbookView xWindow="1080" yWindow="800" windowWidth="28100" windowHeight="17220" xr2:uid="{678EDDF4-CE9F-4543-90D4-9FD3663467C3}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,42 @@
   </si>
   <si>
     <t>{float}30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewordType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewordAmount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewordType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewordAmount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewordType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewordAmount3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egg_Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop_Almond_Silver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,15 +522,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C89608-5DF8-A042-99FA-293B2E0FD3DE}">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,8 +551,26 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -521,8 +583,26 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -534,6 +614,24 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
